--- a/Yale.xlsx
+++ b/Yale.xlsx
@@ -223,100 +223,100 @@
     <t>1369_3_E9_E09.fcs</t>
   </si>
   <si>
-    <t>Compensation Controls_FITC Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>LIVE GREEN:FITC</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD45RA PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD194 PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD27 PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD11c PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD196 PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD127 Alexa-647 APC Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD8 APC-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD45RO APC-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD20 APC-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD3+CD19+CD20 APC-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_V450 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_V500 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_PE Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_PerCP-Cy5-5 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_APC Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>CD197:PE</t>
-  </si>
-  <si>
     <t>CD4:PerCP-Cy5-5-A</t>
   </si>
   <si>
-    <t>CD45RA:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD194:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD27:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD11c:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD196:PE-Cy7</t>
-  </si>
-  <si>
-    <t>CD38:APC</t>
-  </si>
-  <si>
-    <t>CD127:Alexa 647</t>
-  </si>
-  <si>
-    <t>CD8:APC-H7</t>
-  </si>
-  <si>
-    <t>CD45RO:APC-H7</t>
-  </si>
-  <si>
-    <t>CD3+19+20:APC-H7</t>
-  </si>
-  <si>
-    <t>CD3:V450</t>
-  </si>
-  <si>
-    <t>HLA-DR:V500</t>
-  </si>
-  <si>
-    <t>CD20:APC-Cy7</t>
+    <t>CD38:APC-A</t>
+  </si>
+  <si>
+    <t>CD11c:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD127:APC-A</t>
+  </si>
+  <si>
+    <t>CD194:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD196:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD20:APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD27:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD3+19+20:APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD45RA:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD45RO:APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD8:APC-Cy7-A</t>
+  </si>
+  <si>
+    <t>LIVE GREEN:FITC-A</t>
+  </si>
+  <si>
+    <t>CD197:PE-A</t>
+  </si>
+  <si>
+    <t>CD3:V450-A</t>
+  </si>
+  <si>
+    <t>HLA-DR:V500-A</t>
+  </si>
+  <si>
+    <t>Compensation Controls_FITC-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_PE-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_PerCP-Cy5-5-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD45RA PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD194 PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD27 PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD11c PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD196 PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_APC-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD127 Alexa-647 APC-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD8 APC-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD45RO APC-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD20 APC-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD3+CD19+CD20 APC-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_V450-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_V500-A Stained Control.fcs</t>
   </si>
 </sst>
 </file>
@@ -427,10 +427,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -772,13 +772,13 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
@@ -829,10 +829,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -898,10 +898,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1082,10 +1082,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1245,10 +1245,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1260,10 +1260,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1275,10 +1275,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1290,10 +1290,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -1305,10 +1305,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -1320,10 +1320,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1335,10 +1335,10 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1350,10 +1350,10 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -1365,10 +1365,10 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1380,10 +1380,10 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1395,10 +1395,10 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -1410,10 +1410,10 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -1425,10 +1425,10 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" t="s">
         <v>8</v>
       </c>
@@ -1440,10 +1440,10 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
       <c r="C17" t="s">
         <v>8</v>
       </c>
@@ -1455,10 +1455,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>8</v>
       </c>
@@ -1470,10 +1470,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -1485,10 +1485,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -1500,10 +1500,10 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" t="s">
         <v>8</v>
       </c>
@@ -1515,10 +1515,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -1530,10 +1530,10 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" t="s">
         <v>10</v>
       </c>
@@ -1545,10 +1545,10 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" t="s">
         <v>10</v>
       </c>
@@ -1560,10 +1560,10 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -1575,10 +1575,10 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
       <c r="C26" t="s">
         <v>10</v>
       </c>
@@ -1590,10 +1590,10 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
       <c r="C27" t="s">
         <v>10</v>
       </c>
@@ -1605,10 +1605,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>10</v>
       </c>
@@ -1620,10 +1620,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
       <c r="C29" t="s">
         <v>10</v>
       </c>
@@ -1635,10 +1635,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="10"/>
       <c r="C30" t="s">
         <v>10</v>
       </c>
@@ -1650,10 +1650,10 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -1665,10 +1665,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -1680,10 +1680,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -1695,10 +1695,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="10"/>
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -1710,10 +1710,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -1725,10 +1725,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -1740,10 +1740,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="10"/>
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -1755,10 +1755,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -1770,10 +1770,10 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="10"/>
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -1785,10 +1785,10 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -1800,10 +1800,10 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -1815,10 +1815,10 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -1830,10 +1830,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -1845,10 +1845,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -1860,10 +1860,10 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="10"/>
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -1875,10 +1875,10 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="10"/>
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -1890,10 +1890,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="10"/>
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -1905,10 +1905,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="10"/>
       <c r="C48" t="s">
         <v>12</v>
       </c>
